--- a/Bank/中医内科学/心/Bank_不寐.xlsx
+++ b/Bank/中医内科学/心/Bank_不寐.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/心/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4860" yWindow="460" windowWidth="20740" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>有关失眠"胃不和则卧不安”的论点语出</t>
   </si>
@@ -319,12 +330,18 @@
   </si>
   <si>
     <t>诊断：失眠。辨证：心脾两虚。分析：患者以失眠为主症，分析其原因系工作紧张，思虑太过，损伤心脾，心神失养所致，故病名诊断为失眠。与失眠同时出现的头晕健忘，神疲食少，舌质淡，苔白薄，脉细等症，亦属心脾亏虚的证候，故辨证为心脾两虚。治法：补益心脾，养心安神。方药：归脾汤加减。党参12g黄英15g白术12g当归12g远志9g酸枣仁12g茯苓12g龙眼肉12g木香9g甘草9g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,13 +655,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -660,6 +675,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>38</v>
+      </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
@@ -670,7 +688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -686,6 +704,9 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2">
+        <v>38</v>
+      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -696,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -712,6 +733,9 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
+      <c r="G3">
+        <v>38</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -722,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -738,6 +762,9 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
+      <c r="G4">
+        <v>38</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
@@ -748,7 +775,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>23</v>
       </c>
@@ -764,6 +791,9 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -774,7 +804,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -790,6 +820,9 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
+      <c r="G6">
+        <v>38</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -800,7 +833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -816,6 +849,9 @@
       <c r="F7" t="s">
         <v>38</v>
       </c>
+      <c r="G7">
+        <v>38</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -826,7 +862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -842,6 +878,9 @@
       <c r="F8" t="s">
         <v>43</v>
       </c>
+      <c r="G8">
+        <v>38</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -852,7 +891,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>44</v>
       </c>
@@ -868,6 +907,9 @@
       <c r="F9" t="s">
         <v>48</v>
       </c>
+      <c r="G9">
+        <v>38</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -878,7 +920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>49</v>
       </c>
@@ -894,6 +936,9 @@
       <c r="F10" t="s">
         <v>35</v>
       </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -904,7 +949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>53</v>
       </c>
@@ -920,6 +965,9 @@
       <c r="F11" t="s">
         <v>57</v>
       </c>
+      <c r="G11">
+        <v>38</v>
+      </c>
       <c r="H11" t="s">
         <v>87</v>
       </c>
@@ -933,7 +981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>58</v>
       </c>
@@ -949,6 +997,9 @@
       <c r="F12" t="s">
         <v>62</v>
       </c>
+      <c r="G12">
+        <v>38</v>
+      </c>
       <c r="H12" t="s">
         <v>87</v>
       </c>
@@ -962,7 +1013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>65</v>
       </c>
@@ -978,6 +1029,9 @@
       <c r="F13" t="s">
         <v>69</v>
       </c>
+      <c r="G13">
+        <v>38</v>
+      </c>
       <c r="H13" t="s">
         <v>87</v>
       </c>
@@ -991,7 +1045,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>71</v>
       </c>
@@ -1007,6 +1061,9 @@
       <c r="F14" t="s">
         <v>37</v>
       </c>
+      <c r="G14">
+        <v>38</v>
+      </c>
       <c r="H14" t="s">
         <v>87</v>
       </c>
@@ -1020,7 +1077,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>76</v>
       </c>
@@ -1036,6 +1093,9 @@
       <c r="F15" t="s">
         <v>80</v>
       </c>
+      <c r="G15">
+        <v>38</v>
+      </c>
       <c r="H15" t="s">
         <v>87</v>
       </c>
@@ -1049,12 +1109,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>82</v>
       </c>
+      <c r="G16">
+        <v>38</v>
+      </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1063,12 +1126,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>26</v>
       </c>
+      <c r="G17">
+        <v>38</v>
+      </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1077,10 +1143,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>83</v>
       </c>
+      <c r="G18">
+        <v>38</v>
+      </c>
       <c r="H18" t="s">
         <v>88</v>
       </c>
@@ -1091,10 +1160,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>84</v>
       </c>
+      <c r="G19">
+        <v>38</v>
+      </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
@@ -1105,10 +1177,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>85</v>
       </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
       <c r="H20" t="s">
         <v>88</v>
       </c>
@@ -1119,10 +1194,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>86</v>
       </c>
+      <c r="G21">
+        <v>38</v>
+      </c>
       <c r="H21" t="s">
         <v>88</v>
       </c>
@@ -1133,12 +1211,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>92</v>
       </c>
+      <c r="G22">
+        <v>38</v>
+      </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="J22">
         <v>1</v>
